--- a/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251014_201200.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251014_201200.xlsx
@@ -4981,7 +4981,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
